--- a/visuals/ownership-rate-by-re-hhsize.xlsx
+++ b/visuals/ownership-rate-by-re-hhsize.xlsx
@@ -28701,7 +28701,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U110"/>
+  <dimension ref="A1:U111"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -36229,63 +36229,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>People of color</t>
+          <t>Native Hawaiian or Pacific Islander</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
           <t>detail</t>
-        </is>
-      </c>
-      <c r="E98">
-        <v>7451</v>
-      </c>
-      <c r="F98">
-        <v>7438</v>
-      </c>
-      <c r="G98">
-        <v>7451</v>
-      </c>
-      <c r="H98">
-        <v>0.464757984031936</v>
-      </c>
-      <c r="I98">
-        <v>0.467123029579853</v>
-      </c>
-      <c r="J98">
-        <v>0.464757984031936</v>
-      </c>
-      <c r="K98">
-        <v>903.529783524041</v>
-      </c>
-      <c r="L98">
-        <v>900.154160944113</v>
-      </c>
-      <c r="M98">
-        <v>903.529783524041</v>
-      </c>
-      <c r="N98">
-        <v>0.0373840028183127</v>
-      </c>
-      <c r="O98">
-        <v>0.0364220347435384</v>
-      </c>
-      <c r="P98">
-        <v>0.0373840028183127</v>
-      </c>
-      <c r="Q98" t="inlineStr">
-        <is>
-          <t>good</t>
-        </is>
-      </c>
-      <c r="R98" t="inlineStr">
-        <is>
-          <t>good</t>
-        </is>
-      </c>
-      <c r="S98" t="inlineStr">
-        <is>
-          <t>good</t>
         </is>
       </c>
       <c r="T98" t="inlineStr">
@@ -36308,7 +36257,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Single race Harvard</t>
+          <t>People of color</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -36317,40 +36266,40 @@
         </is>
       </c>
       <c r="E99">
-        <v>39387</v>
+        <v>7451</v>
       </c>
       <c r="F99">
-        <v>39374</v>
+        <v>7438</v>
       </c>
       <c r="G99">
-        <v>39387</v>
+        <v>7451</v>
       </c>
       <c r="H99">
-        <v>0.545662353495331</v>
+        <v>0.464757984031936</v>
       </c>
       <c r="I99">
-        <v>0.546489194853502</v>
+        <v>0.467123029579853</v>
       </c>
       <c r="J99">
-        <v>0.545662353495331</v>
+        <v>0.464757984031936</v>
       </c>
       <c r="K99">
-        <v>1809.53540454</v>
+        <v>903.529783524041</v>
       </c>
       <c r="L99">
-        <v>1805.82339111519</v>
+        <v>900.154160944113</v>
       </c>
       <c r="M99">
-        <v>1809.53540454</v>
+        <v>903.529783524041</v>
       </c>
       <c r="N99">
-        <v>0.0196297044202006</v>
+        <v>0.0373840028183127</v>
       </c>
       <c r="O99">
-        <v>0.0194057161155801</v>
+        <v>0.0364220347435384</v>
       </c>
       <c r="P99">
-        <v>0.0196297044202006</v>
+        <v>0.0373840028183127</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -36387,7 +36336,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Single race PSRC</t>
+          <t>Single race Harvard</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -36396,40 +36345,40 @@
         </is>
       </c>
       <c r="E100">
-        <v>37833</v>
+        <v>39387</v>
       </c>
       <c r="F100">
-        <v>37820</v>
+        <v>39374</v>
       </c>
       <c r="G100">
-        <v>37833</v>
+        <v>39387</v>
       </c>
       <c r="H100">
-        <v>0.550114143631949</v>
+        <v>0.545662353495331</v>
       </c>
       <c r="I100">
-        <v>0.550990675990676</v>
+        <v>0.546489194853502</v>
       </c>
       <c r="J100">
-        <v>0.550114143631949</v>
+        <v>0.545662353495331</v>
       </c>
       <c r="K100">
-        <v>1816.67211837263</v>
+        <v>1809.53540454</v>
       </c>
       <c r="L100">
-        <v>1812.88374167788</v>
+        <v>1805.82339111519</v>
       </c>
       <c r="M100">
-        <v>1816.67211837263</v>
+        <v>1809.53540454</v>
       </c>
       <c r="N100">
-        <v>0.0206838997758817</v>
+        <v>0.0196297044202006</v>
       </c>
       <c r="O100">
-        <v>0.0204756514200509</v>
+        <v>0.0194057161155801</v>
       </c>
       <c r="P100">
-        <v>0.0206838997758817</v>
+        <v>0.0196297044202006</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -36545,7 +36494,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Some Other Race</t>
+          <t>Single race PSRC</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -36554,54 +36503,54 @@
         </is>
       </c>
       <c r="E102">
-        <v>219</v>
+        <v>37833</v>
       </c>
       <c r="F102">
-        <v>219</v>
+        <v>37820</v>
       </c>
       <c r="G102">
-        <v>219</v>
+        <v>37833</v>
       </c>
       <c r="H102">
-        <v>0.384885764499121</v>
+        <v>0.550114143631949</v>
       </c>
       <c r="I102">
-        <v>0.384885764499121</v>
+        <v>0.550990675990676</v>
       </c>
       <c r="J102">
-        <v>0.384885764499121</v>
+        <v>0.550114143631949</v>
       </c>
       <c r="K102">
-        <v>130.865410704089</v>
+        <v>1816.67211837263</v>
       </c>
       <c r="L102">
-        <v>130.865410704089</v>
+        <v>1812.88374167788</v>
       </c>
       <c r="M102">
-        <v>130.865410704089</v>
+        <v>1816.67211837263</v>
       </c>
       <c r="N102">
-        <v>0.183116547771441</v>
+        <v>0.0206838997758817</v>
       </c>
       <c r="O102">
-        <v>0.183116547771441</v>
+        <v>0.0204756514200509</v>
       </c>
       <c r="P102">
-        <v>0.183116547771441</v>
+        <v>0.0206838997758817</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>weak</t>
+          <t>good</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
         <is>
-          <t>weak</t>
+          <t>good</t>
         </is>
       </c>
       <c r="S102" t="inlineStr">
         <is>
-          <t>weak</t>
+          <t>good</t>
         </is>
       </c>
       <c r="T102" t="inlineStr">
@@ -36624,7 +36573,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Region</t>
+          <t>Some Other Race</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -36633,54 +36582,54 @@
         </is>
       </c>
       <c r="E103">
-        <v>39387</v>
+        <v>219</v>
       </c>
       <c r="F103">
-        <v>39374</v>
+        <v>219</v>
       </c>
       <c r="G103">
-        <v>39387</v>
+        <v>219</v>
       </c>
       <c r="H103">
-        <v>0.545662353495331</v>
+        <v>0.384885764499121</v>
       </c>
       <c r="I103">
-        <v>0.546489194853502</v>
+        <v>0.384885764499121</v>
       </c>
       <c r="J103">
-        <v>0.545662353495331</v>
+        <v>0.384885764499121</v>
       </c>
       <c r="K103">
-        <v>1809.53540454</v>
+        <v>130.865410704089</v>
       </c>
       <c r="L103">
-        <v>1805.82339111519</v>
+        <v>130.865410704089</v>
       </c>
       <c r="M103">
-        <v>1809.53540454</v>
+        <v>130.865410704089</v>
       </c>
       <c r="N103">
-        <v>0.0196297044202006</v>
+        <v>0.183116547771441</v>
       </c>
       <c r="O103">
-        <v>0.0194057161155801</v>
+        <v>0.183116547771441</v>
       </c>
       <c r="P103">
-        <v>0.0196297044202006</v>
+        <v>0.183116547771441</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>weak</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>weak</t>
         </is>
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>weak</t>
         </is>
       </c>
       <c r="T103" t="inlineStr">
@@ -36940,7 +36889,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Two or More Races</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -36949,54 +36898,54 @@
         </is>
       </c>
       <c r="E107">
-        <v>1554</v>
+        <v>39387</v>
       </c>
       <c r="F107">
-        <v>1554</v>
+        <v>39374</v>
       </c>
       <c r="G107">
-        <v>1554</v>
+        <v>39387</v>
       </c>
       <c r="H107">
-        <v>0.455852156057495</v>
+        <v>0.545662353495331</v>
       </c>
       <c r="I107">
-        <v>0.455852156057495</v>
+        <v>0.546489194853502</v>
       </c>
       <c r="J107">
-        <v>0.455852156057495</v>
+        <v>0.545662353495331</v>
       </c>
       <c r="K107">
-        <v>398.852461461315</v>
+        <v>1809.53540454</v>
       </c>
       <c r="L107">
-        <v>398.852461461315</v>
+        <v>1805.82339111519</v>
       </c>
       <c r="M107">
-        <v>398.852461461315</v>
+        <v>1809.53540454</v>
       </c>
       <c r="N107">
-        <v>0.0726113735226537</v>
+        <v>0.0196297044202006</v>
       </c>
       <c r="O107">
-        <v>0.0726113735226537</v>
+        <v>0.0194057161155801</v>
       </c>
       <c r="P107">
-        <v>0.0726113735226537</v>
+        <v>0.0196297044202006</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>fair</t>
+          <t>good</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>fair</t>
+          <t>good</t>
         </is>
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>fair</t>
+          <t>good</t>
         </is>
       </c>
       <c r="T107" t="inlineStr">
@@ -37098,7 +37047,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Two or More Races</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -37107,54 +37056,54 @@
         </is>
       </c>
       <c r="E109">
-        <v>31936</v>
+        <v>1554</v>
       </c>
       <c r="F109">
-        <v>31936</v>
+        <v>1554</v>
       </c>
       <c r="G109">
-        <v>31936</v>
+        <v>1554</v>
       </c>
       <c r="H109">
-        <v>0.568762243989314</v>
+        <v>0.455852156057495</v>
       </c>
       <c r="I109">
-        <v>0.569005452018672</v>
+        <v>0.455852156057495</v>
       </c>
       <c r="J109">
-        <v>0.568762243989314</v>
+        <v>0.455852156057495</v>
       </c>
       <c r="K109">
-        <v>1583.12354872535</v>
+        <v>398.852461461315</v>
       </c>
       <c r="L109">
-        <v>1583.12354872535</v>
+        <v>398.852461461315</v>
       </c>
       <c r="M109">
-        <v>1583.12354872535</v>
+        <v>398.852461461315</v>
       </c>
       <c r="N109">
-        <v>0.0211868506395508</v>
+        <v>0.0726113735226537</v>
       </c>
       <c r="O109">
-        <v>0.0211536420417412</v>
+        <v>0.0726113735226537</v>
       </c>
       <c r="P109">
-        <v>0.0211868506395508</v>
+        <v>0.0726113735226537</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>fair</t>
         </is>
       </c>
       <c r="R109" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>fair</t>
         </is>
       </c>
       <c r="S109" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>fair</t>
         </is>
       </c>
       <c r="T109" t="inlineStr">
@@ -37243,6 +37192,85 @@
       </c>
       <c r="U110">
         <v>21</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>2023</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Snohomish</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>detail</t>
+        </is>
+      </c>
+      <c r="E111">
+        <v>31936</v>
+      </c>
+      <c r="F111">
+        <v>31936</v>
+      </c>
+      <c r="G111">
+        <v>31936</v>
+      </c>
+      <c r="H111">
+        <v>0.568762243989314</v>
+      </c>
+      <c r="I111">
+        <v>0.569005452018672</v>
+      </c>
+      <c r="J111">
+        <v>0.568762243989314</v>
+      </c>
+      <c r="K111">
+        <v>1583.12354872535</v>
+      </c>
+      <c r="L111">
+        <v>1583.12354872535</v>
+      </c>
+      <c r="M111">
+        <v>1583.12354872535</v>
+      </c>
+      <c r="N111">
+        <v>0.0211868506395508</v>
+      </c>
+      <c r="O111">
+        <v>0.0211536420417412</v>
+      </c>
+      <c r="P111">
+        <v>0.0211868506395508</v>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="R111" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="T111" t="inlineStr">
+        <is>
+          <t>single-person</t>
+        </is>
+      </c>
+      <c r="U111">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -37252,7 +37280,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U110"/>
+  <dimension ref="A1:U111"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -44780,63 +44808,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>People of color</t>
+          <t>Native Hawaiian or Pacific Islander</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
           <t>dichot</t>
-        </is>
-      </c>
-      <c r="E98">
-        <v>7451</v>
-      </c>
-      <c r="F98">
-        <v>7438</v>
-      </c>
-      <c r="G98">
-        <v>7451</v>
-      </c>
-      <c r="H98">
-        <v>0.464757984031936</v>
-      </c>
-      <c r="I98">
-        <v>0.467123029579853</v>
-      </c>
-      <c r="J98">
-        <v>0.464757984031936</v>
-      </c>
-      <c r="K98">
-        <v>903.529783524041</v>
-      </c>
-      <c r="L98">
-        <v>900.154160944113</v>
-      </c>
-      <c r="M98">
-        <v>903.529783524041</v>
-      </c>
-      <c r="N98">
-        <v>0.0373840028183127</v>
-      </c>
-      <c r="O98">
-        <v>0.0364220347435384</v>
-      </c>
-      <c r="P98">
-        <v>0.0373840028183127</v>
-      </c>
-      <c r="Q98" t="inlineStr">
-        <is>
-          <t>good</t>
-        </is>
-      </c>
-      <c r="R98" t="inlineStr">
-        <is>
-          <t>good</t>
-        </is>
-      </c>
-      <c r="S98" t="inlineStr">
-        <is>
-          <t>good</t>
         </is>
       </c>
       <c r="T98" t="inlineStr">
@@ -44859,7 +44836,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Single race Harvard</t>
+          <t>People of color</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -44868,40 +44845,40 @@
         </is>
       </c>
       <c r="E99">
-        <v>39387</v>
+        <v>7451</v>
       </c>
       <c r="F99">
-        <v>39374</v>
+        <v>7438</v>
       </c>
       <c r="G99">
-        <v>39387</v>
+        <v>7451</v>
       </c>
       <c r="H99">
-        <v>0.545662353495331</v>
+        <v>0.464757984031936</v>
       </c>
       <c r="I99">
-        <v>0.546489194853502</v>
+        <v>0.467123029579853</v>
       </c>
       <c r="J99">
-        <v>0.545662353495331</v>
+        <v>0.464757984031936</v>
       </c>
       <c r="K99">
-        <v>1809.53540454</v>
+        <v>903.529783524041</v>
       </c>
       <c r="L99">
-        <v>1805.82339111519</v>
+        <v>900.154160944113</v>
       </c>
       <c r="M99">
-        <v>1809.53540454</v>
+        <v>903.529783524041</v>
       </c>
       <c r="N99">
-        <v>0.0196297044202006</v>
+        <v>0.0373840028183127</v>
       </c>
       <c r="O99">
-        <v>0.0194057161155801</v>
+        <v>0.0364220347435384</v>
       </c>
       <c r="P99">
-        <v>0.0196297044202006</v>
+        <v>0.0373840028183127</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -44938,7 +44915,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Single race PSRC</t>
+          <t>Single race Harvard</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -44947,40 +44924,40 @@
         </is>
       </c>
       <c r="E100">
-        <v>37833</v>
+        <v>39387</v>
       </c>
       <c r="F100">
-        <v>37820</v>
+        <v>39374</v>
       </c>
       <c r="G100">
-        <v>37833</v>
+        <v>39387</v>
       </c>
       <c r="H100">
-        <v>0.550114143631949</v>
+        <v>0.545662353495331</v>
       </c>
       <c r="I100">
-        <v>0.550990675990676</v>
+        <v>0.546489194853502</v>
       </c>
       <c r="J100">
-        <v>0.550114143631949</v>
+        <v>0.545662353495331</v>
       </c>
       <c r="K100">
-        <v>1816.67211837263</v>
+        <v>1809.53540454</v>
       </c>
       <c r="L100">
-        <v>1812.88374167788</v>
+        <v>1805.82339111519</v>
       </c>
       <c r="M100">
-        <v>1816.67211837263</v>
+        <v>1809.53540454</v>
       </c>
       <c r="N100">
-        <v>0.0206838997758817</v>
+        <v>0.0196297044202006</v>
       </c>
       <c r="O100">
-        <v>0.0204756514200509</v>
+        <v>0.0194057161155801</v>
       </c>
       <c r="P100">
-        <v>0.0206838997758817</v>
+        <v>0.0196297044202006</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -45096,7 +45073,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Some Other Race</t>
+          <t>Single race PSRC</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -45105,54 +45082,54 @@
         </is>
       </c>
       <c r="E102">
-        <v>219</v>
+        <v>37833</v>
       </c>
       <c r="F102">
-        <v>219</v>
+        <v>37820</v>
       </c>
       <c r="G102">
-        <v>219</v>
+        <v>37833</v>
       </c>
       <c r="H102">
-        <v>0.384885764499121</v>
+        <v>0.550114143631949</v>
       </c>
       <c r="I102">
-        <v>0.384885764499121</v>
+        <v>0.550990675990676</v>
       </c>
       <c r="J102">
-        <v>0.384885764499121</v>
+        <v>0.550114143631949</v>
       </c>
       <c r="K102">
-        <v>130.865410704089</v>
+        <v>1816.67211837263</v>
       </c>
       <c r="L102">
-        <v>130.865410704089</v>
+        <v>1812.88374167788</v>
       </c>
       <c r="M102">
-        <v>130.865410704089</v>
+        <v>1816.67211837263</v>
       </c>
       <c r="N102">
-        <v>0.183116547771441</v>
+        <v>0.0206838997758817</v>
       </c>
       <c r="O102">
-        <v>0.183116547771441</v>
+        <v>0.0204756514200509</v>
       </c>
       <c r="P102">
-        <v>0.183116547771441</v>
+        <v>0.0206838997758817</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>weak</t>
+          <t>good</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
         <is>
-          <t>weak</t>
+          <t>good</t>
         </is>
       </c>
       <c r="S102" t="inlineStr">
         <is>
-          <t>weak</t>
+          <t>good</t>
         </is>
       </c>
       <c r="T102" t="inlineStr">
@@ -45175,7 +45152,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Region</t>
+          <t>Some Other Race</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -45184,54 +45161,54 @@
         </is>
       </c>
       <c r="E103">
-        <v>39387</v>
+        <v>219</v>
       </c>
       <c r="F103">
-        <v>39374</v>
+        <v>219</v>
       </c>
       <c r="G103">
-        <v>39387</v>
+        <v>219</v>
       </c>
       <c r="H103">
-        <v>0.545662353495331</v>
+        <v>0.384885764499121</v>
       </c>
       <c r="I103">
-        <v>0.546489194853502</v>
+        <v>0.384885764499121</v>
       </c>
       <c r="J103">
-        <v>0.545662353495331</v>
+        <v>0.384885764499121</v>
       </c>
       <c r="K103">
-        <v>1809.53540454</v>
+        <v>130.865410704089</v>
       </c>
       <c r="L103">
-        <v>1805.82339111519</v>
+        <v>130.865410704089</v>
       </c>
       <c r="M103">
-        <v>1809.53540454</v>
+        <v>130.865410704089</v>
       </c>
       <c r="N103">
-        <v>0.0196297044202006</v>
+        <v>0.183116547771441</v>
       </c>
       <c r="O103">
-        <v>0.0194057161155801</v>
+        <v>0.183116547771441</v>
       </c>
       <c r="P103">
-        <v>0.0196297044202006</v>
+        <v>0.183116547771441</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>weak</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>weak</t>
         </is>
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>weak</t>
         </is>
       </c>
       <c r="T103" t="inlineStr">
@@ -45491,7 +45468,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Two or More Races</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -45500,54 +45477,54 @@
         </is>
       </c>
       <c r="E107">
-        <v>1554</v>
+        <v>39387</v>
       </c>
       <c r="F107">
-        <v>1554</v>
+        <v>39374</v>
       </c>
       <c r="G107">
-        <v>1554</v>
+        <v>39387</v>
       </c>
       <c r="H107">
-        <v>0.455852156057495</v>
+        <v>0.545662353495331</v>
       </c>
       <c r="I107">
-        <v>0.455852156057495</v>
+        <v>0.546489194853502</v>
       </c>
       <c r="J107">
-        <v>0.455852156057495</v>
+        <v>0.545662353495331</v>
       </c>
       <c r="K107">
-        <v>398.852461461315</v>
+        <v>1809.53540454</v>
       </c>
       <c r="L107">
-        <v>398.852461461315</v>
+        <v>1805.82339111519</v>
       </c>
       <c r="M107">
-        <v>398.852461461315</v>
+        <v>1809.53540454</v>
       </c>
       <c r="N107">
-        <v>0.0726113735226537</v>
+        <v>0.0196297044202006</v>
       </c>
       <c r="O107">
-        <v>0.0726113735226537</v>
+        <v>0.0194057161155801</v>
       </c>
       <c r="P107">
-        <v>0.0726113735226537</v>
+        <v>0.0196297044202006</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>fair</t>
+          <t>good</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>fair</t>
+          <t>good</t>
         </is>
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>fair</t>
+          <t>good</t>
         </is>
       </c>
       <c r="T107" t="inlineStr">
@@ -45649,7 +45626,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Two or More Races</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -45658,54 +45635,54 @@
         </is>
       </c>
       <c r="E109">
-        <v>31936</v>
+        <v>1554</v>
       </c>
       <c r="F109">
-        <v>31936</v>
+        <v>1554</v>
       </c>
       <c r="G109">
-        <v>31936</v>
+        <v>1554</v>
       </c>
       <c r="H109">
-        <v>0.568762243989314</v>
+        <v>0.455852156057495</v>
       </c>
       <c r="I109">
-        <v>0.569005452018672</v>
+        <v>0.455852156057495</v>
       </c>
       <c r="J109">
-        <v>0.568762243989314</v>
+        <v>0.455852156057495</v>
       </c>
       <c r="K109">
-        <v>1583.12354872535</v>
+        <v>398.852461461315</v>
       </c>
       <c r="L109">
-        <v>1583.12354872535</v>
+        <v>398.852461461315</v>
       </c>
       <c r="M109">
-        <v>1583.12354872535</v>
+        <v>398.852461461315</v>
       </c>
       <c r="N109">
-        <v>0.0211868506395508</v>
+        <v>0.0726113735226537</v>
       </c>
       <c r="O109">
-        <v>0.0211536420417412</v>
+        <v>0.0726113735226537</v>
       </c>
       <c r="P109">
-        <v>0.0211868506395508</v>
+        <v>0.0726113735226537</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>fair</t>
         </is>
       </c>
       <c r="R109" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>fair</t>
         </is>
       </c>
       <c r="S109" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>fair</t>
         </is>
       </c>
       <c r="T109" t="inlineStr">
@@ -45794,6 +45771,85 @@
       </c>
       <c r="U110">
         <v>21</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>2023</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Snohomish</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>dichot</t>
+        </is>
+      </c>
+      <c r="E111">
+        <v>31936</v>
+      </c>
+      <c r="F111">
+        <v>31936</v>
+      </c>
+      <c r="G111">
+        <v>31936</v>
+      </c>
+      <c r="H111">
+        <v>0.568762243989314</v>
+      </c>
+      <c r="I111">
+        <v>0.569005452018672</v>
+      </c>
+      <c r="J111">
+        <v>0.568762243989314</v>
+      </c>
+      <c r="K111">
+        <v>1583.12354872535</v>
+      </c>
+      <c r="L111">
+        <v>1583.12354872535</v>
+      </c>
+      <c r="M111">
+        <v>1583.12354872535</v>
+      </c>
+      <c r="N111">
+        <v>0.0211868506395508</v>
+      </c>
+      <c r="O111">
+        <v>0.0211536420417412</v>
+      </c>
+      <c r="P111">
+        <v>0.0211868506395508</v>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="R111" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="T111" t="inlineStr">
+        <is>
+          <t>single-person</t>
+        </is>
+      </c>
+      <c r="U111">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -45803,7 +45859,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U110"/>
+  <dimension ref="A1:U111"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -53331,63 +53387,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>People of color</t>
+          <t>Native Hawaiian or Pacific Islander</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
           <t>single</t>
-        </is>
-      </c>
-      <c r="E98">
-        <v>7451</v>
-      </c>
-      <c r="F98">
-        <v>7438</v>
-      </c>
-      <c r="G98">
-        <v>7451</v>
-      </c>
-      <c r="H98">
-        <v>0.464757984031936</v>
-      </c>
-      <c r="I98">
-        <v>0.467123029579853</v>
-      </c>
-      <c r="J98">
-        <v>0.464757984031936</v>
-      </c>
-      <c r="K98">
-        <v>903.529783524041</v>
-      </c>
-      <c r="L98">
-        <v>900.154160944113</v>
-      </c>
-      <c r="M98">
-        <v>903.529783524041</v>
-      </c>
-      <c r="N98">
-        <v>0.0373840028183127</v>
-      </c>
-      <c r="O98">
-        <v>0.0364220347435384</v>
-      </c>
-      <c r="P98">
-        <v>0.0373840028183127</v>
-      </c>
-      <c r="Q98" t="inlineStr">
-        <is>
-          <t>good</t>
-        </is>
-      </c>
-      <c r="R98" t="inlineStr">
-        <is>
-          <t>good</t>
-        </is>
-      </c>
-      <c r="S98" t="inlineStr">
-        <is>
-          <t>good</t>
         </is>
       </c>
       <c r="T98" t="inlineStr">
@@ -53410,7 +53415,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Single race Harvard</t>
+          <t>People of color</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -53419,40 +53424,40 @@
         </is>
       </c>
       <c r="E99">
-        <v>39387</v>
+        <v>7451</v>
       </c>
       <c r="F99">
-        <v>39374</v>
+        <v>7438</v>
       </c>
       <c r="G99">
-        <v>39387</v>
+        <v>7451</v>
       </c>
       <c r="H99">
-        <v>0.545662353495331</v>
+        <v>0.464757984031936</v>
       </c>
       <c r="I99">
-        <v>0.546489194853502</v>
+        <v>0.467123029579853</v>
       </c>
       <c r="J99">
-        <v>0.545662353495331</v>
+        <v>0.464757984031936</v>
       </c>
       <c r="K99">
-        <v>1809.53540454</v>
+        <v>903.529783524041</v>
       </c>
       <c r="L99">
-        <v>1805.82339111519</v>
+        <v>900.154160944113</v>
       </c>
       <c r="M99">
-        <v>1809.53540454</v>
+        <v>903.529783524041</v>
       </c>
       <c r="N99">
-        <v>0.0196297044202006</v>
+        <v>0.0373840028183127</v>
       </c>
       <c r="O99">
-        <v>0.0194057161155801</v>
+        <v>0.0364220347435384</v>
       </c>
       <c r="P99">
-        <v>0.0196297044202006</v>
+        <v>0.0373840028183127</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -53489,7 +53494,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Single race PSRC</t>
+          <t>Single race Harvard</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -53498,40 +53503,40 @@
         </is>
       </c>
       <c r="E100">
-        <v>37833</v>
+        <v>39387</v>
       </c>
       <c r="F100">
-        <v>37820</v>
+        <v>39374</v>
       </c>
       <c r="G100">
-        <v>37833</v>
+        <v>39387</v>
       </c>
       <c r="H100">
-        <v>0.550114143631949</v>
+        <v>0.545662353495331</v>
       </c>
       <c r="I100">
-        <v>0.550990675990676</v>
+        <v>0.546489194853502</v>
       </c>
       <c r="J100">
-        <v>0.550114143631949</v>
+        <v>0.545662353495331</v>
       </c>
       <c r="K100">
-        <v>1816.67211837263</v>
+        <v>1809.53540454</v>
       </c>
       <c r="L100">
-        <v>1812.88374167788</v>
+        <v>1805.82339111519</v>
       </c>
       <c r="M100">
-        <v>1816.67211837263</v>
+        <v>1809.53540454</v>
       </c>
       <c r="N100">
-        <v>0.0206838997758817</v>
+        <v>0.0196297044202006</v>
       </c>
       <c r="O100">
-        <v>0.0204756514200509</v>
+        <v>0.0194057161155801</v>
       </c>
       <c r="P100">
-        <v>0.0206838997758817</v>
+        <v>0.0196297044202006</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -53647,7 +53652,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Some Other Race</t>
+          <t>Single race PSRC</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -53656,54 +53661,54 @@
         </is>
       </c>
       <c r="E102">
-        <v>219</v>
+        <v>37833</v>
       </c>
       <c r="F102">
-        <v>219</v>
+        <v>37820</v>
       </c>
       <c r="G102">
-        <v>219</v>
+        <v>37833</v>
       </c>
       <c r="H102">
-        <v>0.384885764499121</v>
+        <v>0.550114143631949</v>
       </c>
       <c r="I102">
-        <v>0.384885764499121</v>
+        <v>0.550990675990676</v>
       </c>
       <c r="J102">
-        <v>0.384885764499121</v>
+        <v>0.550114143631949</v>
       </c>
       <c r="K102">
-        <v>130.865410704089</v>
+        <v>1816.67211837263</v>
       </c>
       <c r="L102">
-        <v>130.865410704089</v>
+        <v>1812.88374167788</v>
       </c>
       <c r="M102">
-        <v>130.865410704089</v>
+        <v>1816.67211837263</v>
       </c>
       <c r="N102">
-        <v>0.183116547771441</v>
+        <v>0.0206838997758817</v>
       </c>
       <c r="O102">
-        <v>0.183116547771441</v>
+        <v>0.0204756514200509</v>
       </c>
       <c r="P102">
-        <v>0.183116547771441</v>
+        <v>0.0206838997758817</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>weak</t>
+          <t>good</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
         <is>
-          <t>weak</t>
+          <t>good</t>
         </is>
       </c>
       <c r="S102" t="inlineStr">
         <is>
-          <t>weak</t>
+          <t>good</t>
         </is>
       </c>
       <c r="T102" t="inlineStr">
@@ -53726,7 +53731,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Region</t>
+          <t>Some Other Race</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -53735,54 +53740,54 @@
         </is>
       </c>
       <c r="E103">
-        <v>39387</v>
+        <v>219</v>
       </c>
       <c r="F103">
-        <v>39374</v>
+        <v>219</v>
       </c>
       <c r="G103">
-        <v>39387</v>
+        <v>219</v>
       </c>
       <c r="H103">
-        <v>0.545662353495331</v>
+        <v>0.384885764499121</v>
       </c>
       <c r="I103">
-        <v>0.546489194853502</v>
+        <v>0.384885764499121</v>
       </c>
       <c r="J103">
-        <v>0.545662353495331</v>
+        <v>0.384885764499121</v>
       </c>
       <c r="K103">
-        <v>1809.53540454</v>
+        <v>130.865410704089</v>
       </c>
       <c r="L103">
-        <v>1805.82339111519</v>
+        <v>130.865410704089</v>
       </c>
       <c r="M103">
-        <v>1809.53540454</v>
+        <v>130.865410704089</v>
       </c>
       <c r="N103">
-        <v>0.0196297044202006</v>
+        <v>0.183116547771441</v>
       </c>
       <c r="O103">
-        <v>0.0194057161155801</v>
+        <v>0.183116547771441</v>
       </c>
       <c r="P103">
-        <v>0.0196297044202006</v>
+        <v>0.183116547771441</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>weak</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>weak</t>
         </is>
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>weak</t>
         </is>
       </c>
       <c r="T103" t="inlineStr">
@@ -54042,7 +54047,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Two or More Races</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -54051,54 +54056,54 @@
         </is>
       </c>
       <c r="E107">
-        <v>1554</v>
+        <v>39387</v>
       </c>
       <c r="F107">
-        <v>1554</v>
+        <v>39374</v>
       </c>
       <c r="G107">
-        <v>1554</v>
+        <v>39387</v>
       </c>
       <c r="H107">
-        <v>0.455852156057495</v>
+        <v>0.545662353495331</v>
       </c>
       <c r="I107">
-        <v>0.455852156057495</v>
+        <v>0.546489194853502</v>
       </c>
       <c r="J107">
-        <v>0.455852156057495</v>
+        <v>0.545662353495331</v>
       </c>
       <c r="K107">
-        <v>398.852461461315</v>
+        <v>1809.53540454</v>
       </c>
       <c r="L107">
-        <v>398.852461461315</v>
+        <v>1805.82339111519</v>
       </c>
       <c r="M107">
-        <v>398.852461461315</v>
+        <v>1809.53540454</v>
       </c>
       <c r="N107">
-        <v>0.0726113735226537</v>
+        <v>0.0196297044202006</v>
       </c>
       <c r="O107">
-        <v>0.0726113735226537</v>
+        <v>0.0194057161155801</v>
       </c>
       <c r="P107">
-        <v>0.0726113735226537</v>
+        <v>0.0196297044202006</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>fair</t>
+          <t>good</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>fair</t>
+          <t>good</t>
         </is>
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>fair</t>
+          <t>good</t>
         </is>
       </c>
       <c r="T107" t="inlineStr">
@@ -54200,7 +54205,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Two or More Races</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -54209,54 +54214,54 @@
         </is>
       </c>
       <c r="E109">
-        <v>31936</v>
+        <v>1554</v>
       </c>
       <c r="F109">
-        <v>31936</v>
+        <v>1554</v>
       </c>
       <c r="G109">
-        <v>31936</v>
+        <v>1554</v>
       </c>
       <c r="H109">
-        <v>0.568762243989314</v>
+        <v>0.455852156057495</v>
       </c>
       <c r="I109">
-        <v>0.569005452018672</v>
+        <v>0.455852156057495</v>
       </c>
       <c r="J109">
-        <v>0.568762243989314</v>
+        <v>0.455852156057495</v>
       </c>
       <c r="K109">
-        <v>1583.12354872535</v>
+        <v>398.852461461315</v>
       </c>
       <c r="L109">
-        <v>1583.12354872535</v>
+        <v>398.852461461315</v>
       </c>
       <c r="M109">
-        <v>1583.12354872535</v>
+        <v>398.852461461315</v>
       </c>
       <c r="N109">
-        <v>0.0211868506395508</v>
+        <v>0.0726113735226537</v>
       </c>
       <c r="O109">
-        <v>0.0211536420417412</v>
+        <v>0.0726113735226537</v>
       </c>
       <c r="P109">
-        <v>0.0211868506395508</v>
+        <v>0.0726113735226537</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>fair</t>
         </is>
       </c>
       <c r="R109" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>fair</t>
         </is>
       </c>
       <c r="S109" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>fair</t>
         </is>
       </c>
       <c r="T109" t="inlineStr">
@@ -54345,6 +54350,85 @@
       </c>
       <c r="U110">
         <v>21</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>2023</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Snohomish</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="E111">
+        <v>31936</v>
+      </c>
+      <c r="F111">
+        <v>31936</v>
+      </c>
+      <c r="G111">
+        <v>31936</v>
+      </c>
+      <c r="H111">
+        <v>0.568762243989314</v>
+      </c>
+      <c r="I111">
+        <v>0.569005452018672</v>
+      </c>
+      <c r="J111">
+        <v>0.568762243989314</v>
+      </c>
+      <c r="K111">
+        <v>1583.12354872535</v>
+      </c>
+      <c r="L111">
+        <v>1583.12354872535</v>
+      </c>
+      <c r="M111">
+        <v>1583.12354872535</v>
+      </c>
+      <c r="N111">
+        <v>0.0211868506395508</v>
+      </c>
+      <c r="O111">
+        <v>0.0211536420417412</v>
+      </c>
+      <c r="P111">
+        <v>0.0211868506395508</v>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="R111" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="T111" t="inlineStr">
+        <is>
+          <t>single-person</t>
+        </is>
+      </c>
+      <c r="U111">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
